--- a/biology/Médecine/On_joue_au_docteur/On_joue_au_docteur.xlsx
+++ b/biology/Médecine/On_joue_au_docteur/On_joue_au_docteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 On joue au docteur est une émission de télévision québécoise en treize épisodes de 22 minutes produite par Datsis Sphère, et diffusée entre le 7 janvier et le 1er avril 2019 sur Canal Vie.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque semaine, les animatrices Marie-Soleil Dion et Dre Natalia Vo invitent un artiste à intervenir sur des patients fictifs et identifier les soins médicaux qui pourraient être appropriés. À l’aide de mises en situation, elles testent les connaissances et les méconnaissances de leur invité en matière de santé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque semaine, les animatrices Marie-Soleil Dion et Dre Natalia Vo invitent un artiste à intervenir sur des patients fictifs et identifier les soins médicaux qui pourraient être appropriés. À l’aide de mises en situation, elles testent les connaissances et les méconnaissances de leur invité en matière de santé.
 Sur son site officiel, l'émission propose à ses adeptes un quiz et des vidéos exclusives qui déboulonnent des mythes en matière de santé. Le site web de l'émission a été développé par l'équipe de Version 10.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Animatrices</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marie-Soleil Dion
 Dre Natalia Vo</t>
@@ -575,7 +591,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stéphane Bellavance
